--- a/biology/Zoologie/Enopla/Enopla.xlsx
+++ b/biology/Zoologie/Enopla/Enopla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enopla est une classe de vers aquatiques de l'embranchement des Nemertea (vers pourvus d'un probiscis dévaginable). 
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Classe Enopla Schultze, 1851
 Ordre Bdellonemertea
@@ -562,7 +576,7 @@
 Familles Brinkmanniidae (Brinkmannia) ; Coellidae (Coella) ; Drepanobandidae (Drepanobanda)
 Famille Drepanophoridae
 Curranemertes, Drepanophorina, Drepanophorus, Kameginemertes, Polyschista, Punnettia (Stiasny-wijnhoff, 1926), Urichonemertes (Gibson, 1983), Wijnhoffella, Xenonemertes (Gibson, 1983)
-Selon World Register of Marine Species                               (11 janvier 2015)[1] :
+Selon World Register of Marine Species                               (11 janvier 2015) :
 sous-classe Hoplonemertea
 ordre Monostilifera
 sous-ordre Cratenemertea
